--- a/React.xlsx
+++ b/React.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dima\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vodm1001\Desktop\js\prj\social_page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F1F394-6B86-43B5-997A-85F1ECD54959}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD47856-EEAA-481C-9C9F-067DAFC36AE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="1875" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37575" yWindow="870" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="git" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>spa (single page aplication)</t>
   </si>
@@ -92,6 +93,270 @@
   </si>
   <si>
     <t>встановлення всіх потрібних модулів згідно з описом в package.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>операція присвоєння</t>
+  </si>
+  <si>
+    <t>Операція</t>
+  </si>
+  <si>
+    <t>приклад</t>
+  </si>
+  <si>
+    <t>альтернатива</t>
+  </si>
+  <si>
+    <t>Методи</t>
+  </si>
+  <si>
+    <t>\п</t>
+  </si>
+  <si>
+    <t>перенос на новий рядок</t>
+  </si>
+  <si>
+    <t>string + string</t>
+  </si>
+  <si>
+    <t>конкатинація</t>
+  </si>
+  <si>
+    <t>+=</t>
+  </si>
+  <si>
+    <t>a += b</t>
+  </si>
+  <si>
+    <t>а = а + b</t>
+  </si>
+  <si>
+    <t>text[0]</t>
+  </si>
+  <si>
+    <t>вибір певного символу</t>
+  </si>
+  <si>
+    <t>\t</t>
+  </si>
+  <si>
+    <t>табуляція</t>
+  </si>
+  <si>
+    <t>fиnction(аргумент)</t>
+  </si>
+  <si>
+    <t>аргумент функції</t>
+  </si>
+  <si>
+    <t>-=</t>
+  </si>
+  <si>
+    <t>a -= b</t>
+  </si>
+  <si>
+    <t>а = а - b</t>
+  </si>
+  <si>
+    <t>name.slice(0, 1)</t>
+  </si>
+  <si>
+    <t>вибір символів (від, до)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${ } '</t>
+  </si>
+  <si>
+    <t>екранізація в зворотніх лапках</t>
+  </si>
+  <si>
+    <t>{...}</t>
+  </si>
+  <si>
+    <t>блок</t>
+  </si>
+  <si>
+    <t>*=</t>
+  </si>
+  <si>
+    <t>a *= b</t>
+  </si>
+  <si>
+    <t>а = а * b</t>
+  </si>
+  <si>
+    <t>name.toUpperCase()</t>
+  </si>
+  <si>
+    <t>перевести в верхній регістр</t>
+  </si>
+  <si>
+    <t>typeof x</t>
+  </si>
+  <si>
+    <t>тип</t>
+  </si>
+  <si>
+    <t>/=</t>
+  </si>
+  <si>
+    <t>a /= b</t>
+  </si>
+  <si>
+    <t>а = а / b</t>
+  </si>
+  <si>
+    <t>z ? x : y</t>
+  </si>
+  <si>
+    <t>якщо z(умова) === true виконується x, якщо z === false виконується y</t>
+  </si>
+  <si>
+    <t>%=</t>
+  </si>
+  <si>
+    <t>a %= b</t>
+  </si>
+  <si>
+    <t>а = а % b</t>
+  </si>
+  <si>
+    <t>x || y</t>
+  </si>
+  <si>
+    <t>якщо х === true повертає x, якщо x === false повертає y (0, NAN, "" === false)</t>
+  </si>
+  <si>
+    <t>* * =</t>
+  </si>
+  <si>
+    <t>a * * = b</t>
+  </si>
+  <si>
+    <t>а = а ** b</t>
+  </si>
+  <si>
+    <t>x &amp;&amp; y</t>
+  </si>
+  <si>
+    <t>якщо х === false повертає x, якщо x === true повертає y (0, NAN, "" === false)</t>
+  </si>
+  <si>
+    <t>&lt;&lt; =</t>
+  </si>
+  <si>
+    <t>a &lt;&lt; = b</t>
+  </si>
+  <si>
+    <t>а = а &lt;&lt; b</t>
+  </si>
+  <si>
+    <t>Math.max()</t>
+  </si>
+  <si>
+    <t>повертає найбільше значення з списку</t>
+  </si>
+  <si>
+    <t>&gt;&gt;=</t>
+  </si>
+  <si>
+    <t>a &gt;&gt;= b</t>
+  </si>
+  <si>
+    <t>а = а &gt;&gt; b</t>
+  </si>
+  <si>
+    <t>Math.min()</t>
+  </si>
+  <si>
+    <t>повертає найменше значення з списку</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;=</t>
+  </si>
+  <si>
+    <t>a &gt;&gt;&gt;= b</t>
+  </si>
+  <si>
+    <t>а = а &gt;&gt;&gt; b</t>
+  </si>
+  <si>
+    <t>Number.isNaN(x)</t>
+  </si>
+  <si>
+    <t>повертає true якщо x === NaN</t>
+  </si>
+  <si>
+    <t>&amp;=</t>
+  </si>
+  <si>
+    <t>a &amp;= b</t>
+  </si>
+  <si>
+    <t>а = а &amp; b</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>перериває цикл</t>
+  </si>
+  <si>
+    <t>|=</t>
+  </si>
+  <si>
+    <t>a |= b</t>
+  </si>
+  <si>
+    <t>а = а | b</t>
+  </si>
+  <si>
+    <t>/*…*/</t>
+  </si>
+  <si>
+    <t>коментування вибраного фрагменту</t>
+  </si>
+  <si>
+    <t>^=</t>
+  </si>
+  <si>
+    <t>a ^= b</t>
+  </si>
+  <si>
+    <t>а = а ^ b</t>
+  </si>
+  <si>
+    <t>x.toUpperCase()</t>
+  </si>
+  <si>
+    <t>виводить х в верхньому регістрі</t>
+  </si>
+  <si>
+    <t>x.toLowerCase()</t>
+  </si>
+  <si>
+    <t>виводить х в нижньому регістрі</t>
+  </si>
+  <si>
+    <t>sequence.push(x)</t>
+  </si>
+  <si>
+    <t>добавляє в кінець масиву "sequence" елемент "x"</t>
+  </si>
+  <si>
+    <t>sequence.pop()</t>
+  </si>
+  <si>
+    <t>видаляє останній елемнт масиву  "sequence" і виводить його</t>
+  </si>
+  <si>
+    <t>перейти в потрібну папку</t>
+  </si>
+  <si>
+    <t>cd "C:\Users\vodm1001\Desktop\js\prj\social_page"</t>
   </si>
 </sst>
 </file>
@@ -121,7 +386,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -129,15 +394,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -150,6 +515,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>14671</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>336783</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{261CD032-3D21-4684-8EEA-6A725C606C70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2205421" y="238125"/>
+          <a:ext cx="4589312" cy="2771775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E4"/>
+  <dimension ref="A2:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,6 +896,11 @@
         <v>21</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -474,15 +910,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D926D273-D845-46DF-AD64-D917D695B925}">
-  <dimension ref="B2:C7"/>
+  <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -534,7 +970,340 @@
         <v>16</v>
       </c>
     </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E17EF31-675A-402F-8745-C5C7B8EAE6C4}">
+  <dimension ref="A1:T17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.5703125" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3" customWidth="1"/>
+    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="1.28515625" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P12" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="16:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/React.xlsx
+++ b/React.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vodm1001\Desktop\js\prj\social_page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD47856-EEAA-481C-9C9F-067DAFC36AE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC7F00C-25EE-4988-A5C4-401936D492C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37575" yWindow="870" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
   <si>
     <t>spa (single page aplication)</t>
   </si>
@@ -910,10 +910,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D926D273-D845-46DF-AD64-D917D695B925}">
-  <dimension ref="B2:C8"/>
+  <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C13:C14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,6 +976,11 @@
       </c>
       <c r="C8" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/React.xlsx
+++ b/React.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vodm1001\Desktop\js\prj\social_page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC7F00C-25EE-4988-A5C4-401936D492C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37607A2-8404-4C17-A1AF-1FD479E8C84E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -913,7 +913,7 @@
   <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,6 +976,11 @@
       </c>
       <c r="C8" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">

--- a/React.xlsx
+++ b/React.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vodm1001\Desktop\js\prj\social_page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37607A2-8404-4C17-A1AF-1FD479E8C84E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA090EF9-953F-4F85-9F48-45D039E33E8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -910,10 +910,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D926D273-D845-46DF-AD64-D917D695B925}">
-  <dimension ref="B2:C15"/>
+  <dimension ref="B2:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,14 +978,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>123</v>
-      </c>
-    </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/React.xlsx
+++ b/React.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prj\React\social_page_GIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prj\React\social_page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C9E231-096B-4B43-9A58-3CFA58EC30ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BC0D53-49AF-4536-AC9D-F44ABCA5856B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="705" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="questions" sheetId="3" r:id="rId2"/>
-    <sheet name="git" sheetId="2" r:id="rId3"/>
+    <sheet name="react" sheetId="1" r:id="rId1"/>
+    <sheet name="git" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
   <si>
     <t>spa (single page aplication)</t>
   </si>
@@ -93,13 +93,440 @@
   </si>
   <si>
     <t>встановлення всіх потрібних модулів згідно з описом в package.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>операція присвоєння</t>
+  </si>
+  <si>
+    <t>Операція</t>
+  </si>
+  <si>
+    <t>приклад</t>
+  </si>
+  <si>
+    <t>альтернатива</t>
+  </si>
+  <si>
+    <t>Методи</t>
+  </si>
+  <si>
+    <t>\п</t>
+  </si>
+  <si>
+    <t>перенос на новий рядок</t>
+  </si>
+  <si>
+    <t>string + string</t>
+  </si>
+  <si>
+    <t>конкатинація</t>
+  </si>
+  <si>
+    <t>+=</t>
+  </si>
+  <si>
+    <t>a += b</t>
+  </si>
+  <si>
+    <t>а = а + b</t>
+  </si>
+  <si>
+    <t>text[0]</t>
+  </si>
+  <si>
+    <t>вибір певного символу</t>
+  </si>
+  <si>
+    <t>\t</t>
+  </si>
+  <si>
+    <t>табуляція</t>
+  </si>
+  <si>
+    <t>fиnction(аргумент)</t>
+  </si>
+  <si>
+    <t>аргумент функції</t>
+  </si>
+  <si>
+    <t>-=</t>
+  </si>
+  <si>
+    <t>a -= b</t>
+  </si>
+  <si>
+    <t>а = а - b</t>
+  </si>
+  <si>
+    <t>name.slice(0, 1)</t>
+  </si>
+  <si>
+    <t>вибір символів (від, до)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${ } '</t>
+  </si>
+  <si>
+    <t>екранізація в зворотніх лапках</t>
+  </si>
+  <si>
+    <t>{...}</t>
+  </si>
+  <si>
+    <t>блок</t>
+  </si>
+  <si>
+    <t>*=</t>
+  </si>
+  <si>
+    <t>a *= b</t>
+  </si>
+  <si>
+    <t>а = а * b</t>
+  </si>
+  <si>
+    <t>name.toUpperCase()</t>
+  </si>
+  <si>
+    <t>перевести в верхній регістр</t>
+  </si>
+  <si>
+    <t>typeof x</t>
+  </si>
+  <si>
+    <t>тип</t>
+  </si>
+  <si>
+    <t>/=</t>
+  </si>
+  <si>
+    <t>a /= b</t>
+  </si>
+  <si>
+    <t>а = а / b</t>
+  </si>
+  <si>
+    <t>z ? x : y</t>
+  </si>
+  <si>
+    <t>якщо z(умова) === true виконується x, якщо z === false виконується y</t>
+  </si>
+  <si>
+    <t>%=</t>
+  </si>
+  <si>
+    <t>a %= b</t>
+  </si>
+  <si>
+    <t>а = а % b</t>
+  </si>
+  <si>
+    <t>x || y</t>
+  </si>
+  <si>
+    <t>якщо х === true повертає x, якщо x === false повертає y (0, NAN, "" === false)</t>
+  </si>
+  <si>
+    <t>* * =</t>
+  </si>
+  <si>
+    <t>a * * = b</t>
+  </si>
+  <si>
+    <t>а = а ** b</t>
+  </si>
+  <si>
+    <t>x &amp;&amp; y</t>
+  </si>
+  <si>
+    <t>якщо х === false повертає x, якщо x === true повертає y (0, NAN, "" === false)</t>
+  </si>
+  <si>
+    <t>&lt;&lt; =</t>
+  </si>
+  <si>
+    <t>a &lt;&lt; = b</t>
+  </si>
+  <si>
+    <t>а = а &lt;&lt; b</t>
+  </si>
+  <si>
+    <t>Math.max()</t>
+  </si>
+  <si>
+    <t>повертає найбільше значення з списку</t>
+  </si>
+  <si>
+    <t>&gt;&gt;=</t>
+  </si>
+  <si>
+    <t>a &gt;&gt;= b</t>
+  </si>
+  <si>
+    <t>а = а &gt;&gt; b</t>
+  </si>
+  <si>
+    <t>Math.min()</t>
+  </si>
+  <si>
+    <t>повертає найменше значення з списку</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;=</t>
+  </si>
+  <si>
+    <t>a &gt;&gt;&gt;= b</t>
+  </si>
+  <si>
+    <t>а = а &gt;&gt;&gt; b</t>
+  </si>
+  <si>
+    <t>Number.isNaN(x)</t>
+  </si>
+  <si>
+    <t>повертає true якщо x === NaN</t>
+  </si>
+  <si>
+    <t>&amp;=</t>
+  </si>
+  <si>
+    <t>a &amp;= b</t>
+  </si>
+  <si>
+    <t>а = а &amp; b</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>перериває цикл</t>
+  </si>
+  <si>
+    <t>|=</t>
+  </si>
+  <si>
+    <t>a |= b</t>
+  </si>
+  <si>
+    <t>а = а | b</t>
+  </si>
+  <si>
+    <t>/*…*/</t>
+  </si>
+  <si>
+    <t>коментування вибраного фрагменту</t>
+  </si>
+  <si>
+    <t>^=</t>
+  </si>
+  <si>
+    <t>a ^= b</t>
+  </si>
+  <si>
+    <t>а = а ^ b</t>
+  </si>
+  <si>
+    <t>x.toUpperCase()</t>
+  </si>
+  <si>
+    <t>виводить х в верхньому регістрі</t>
+  </si>
+  <si>
+    <t>x.toLowerCase()</t>
+  </si>
+  <si>
+    <t>виводить х в нижньому регістрі</t>
+  </si>
+  <si>
+    <t>sequence.push(x)</t>
+  </si>
+  <si>
+    <t>добавляє в кінець масиву "sequence" елемент "x"</t>
+  </si>
+  <si>
+    <t>sequence.pop()</t>
+  </si>
+  <si>
+    <t>видаляє останній елемнт масиву  "sequence" і виводить його</t>
+  </si>
+  <si>
+    <t>перейти в потрібну папку</t>
+  </si>
+  <si>
+    <t>cd "C:\Users\vodm1001\Desktop\js\prj\social_page"</t>
+  </si>
+  <si>
+    <t>props</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аргумент компоненти</t>
+  </si>
+  <si>
+    <t>npm i react-router-dom -save</t>
+  </si>
+  <si>
+    <t>встановлення роутер модуля і запис в package.json</t>
+  </si>
+  <si>
+    <t>перехід на ссилку без перезагрузки сторінки</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;NavLink to='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/dialogs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>текст</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/NavLink&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;BrowserRouter&gt;
+   &lt;Routes&gt;
+        &lt;Route path='/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dialogs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' element={&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dialogs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /&gt;} /&gt;
+   &lt;/Routes&gt;
+&lt;/BrowserRouter&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">выдображення компоненти </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dialogs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>при відповідній адресі /</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dialogs</t>
+    </r>
+  </si>
+  <si>
+    <t>BLL</t>
+  </si>
+  <si>
+    <t>Business Logic Layer</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>User Interface</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,21 +535,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -130,12 +579,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -151,6 +701,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>14671</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>336783</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{261CD032-3D21-4684-8EEA-6A725C606C70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2205421" y="238125"/>
+          <a:ext cx="4589312" cy="2771775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,25 +1032,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E4"/>
+  <dimension ref="A2:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="64.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5703125" customWidth="1"/>
+    <col min="7" max="7" width="47.42578125" customWidth="1"/>
+    <col min="8" max="8" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
@@ -443,12 +1063,18 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
@@ -457,8 +1083,20 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
@@ -466,38 +1104,51 @@
         <v>21</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8468D72-21BA-4648-AE4F-A98E32412E7A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D926D273-D845-46DF-AD64-D917D695B925}">
-  <dimension ref="B2:C7"/>
+  <dimension ref="B2:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -549,7 +1200,350 @@
         <v>16</v>
       </c>
     </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E17EF31-675A-402F-8745-C5C7B8EAE6C4}">
+  <dimension ref="A1:T17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.5703125" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3" customWidth="1"/>
+    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="1.28515625" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P12" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="16:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/React.xlsx
+++ b/React.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prj\React\social_page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BC0D53-49AF-4536-AC9D-F44ABCA5856B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A75BA4C-ADAE-495D-8E5C-B36E67D83A5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7215" yWindow="255" windowWidth="13560" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="react" sheetId="1" r:id="rId1"/>
     <sheet name="git" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="!!!" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="131">
   <si>
     <t>spa (single page aplication)</t>
   </si>
@@ -472,8 +473,20 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">выдображення компоненти </t>
+    <t>BLL</t>
+  </si>
+  <si>
+    <t>Business Logic Layer</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>User Interface</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">в </t>
     </r>
     <r>
       <rPr>
@@ -484,6 +497,90 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
+      <t>package.json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> замінити </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"start": "react-scripts start"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> на </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"start": "react-scripts --openssl-legacy-provider start"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>newPostElement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = (react.createRef())</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">відображення компоненти </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Dialogs </t>
     </r>
     <r>
@@ -510,16 +607,105 @@
     </r>
   </si>
   <si>
-    <t>BLL</t>
-  </si>
-  <si>
-    <t>Business Logic Layer</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>User Interface</t>
+    <t>створення ссилки на певний елемент</t>
+  </si>
+  <si>
+    <t>прив’язка ссилки до даного елементу</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;textarea ref={</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>newPostElement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}&gt; &lt;/textarea&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = newPostElement.current.value</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">присвоєння </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> значення яке є в даний момент в полі введення </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;textarea&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>callback function</t>
+  </si>
+  <si>
+    <t>функція зворотнього виклику</t>
   </si>
 </sst>
 </file>
@@ -557,7 +743,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,8 +756,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -659,11 +851,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -686,6 +968,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1035,19 +1323,19 @@
   <dimension ref="A2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D10" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
     <col min="3" max="3" width="3.5703125" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="64.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.5703125" customWidth="1"/>
     <col min="7" max="7" width="47.42578125" customWidth="1"/>
-    <col min="8" max="8" width="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="69.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1070,7 +1358,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1087,7 +1375,7 @@
         <v>116</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1103,13 +1391,19 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
+      <c r="G4" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s">
         <v>118</v>
-      </c>
-      <c r="B5" t="s">
-        <v>119</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>112</v>
@@ -1117,13 +1411,33 @@
       <c r="E5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>121</v>
+      <c r="G6" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1225,6 +1539,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CDB6D4-A49E-40E9-9E25-8EEBE352E61B}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="99.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E17EF31-675A-402F-8745-C5C7B8EAE6C4}">
   <dimension ref="A1:T17"/>
   <sheetViews>

--- a/React.xlsx
+++ b/React.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prj\React\social_page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A75BA4C-ADAE-495D-8E5C-B36E67D83A5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21B647C-E6B4-469E-B5A6-7B9F1528CE18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7215" yWindow="255" windowWidth="13560" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="react" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="135">
   <si>
     <t>spa (single page aplication)</t>
   </si>
@@ -706,13 +706,134 @@
   </si>
   <si>
     <t>функція зворотнього виклику</t>
+  </si>
+  <si>
+    <t>flux</t>
+  </si>
+  <si>
+    <t>організація потоку даних</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;textarea </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onChange</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ={</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onPostCange</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">}/&gt; </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">атрибут </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">onChange </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">запускає функцію </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onPostCange</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> в момент зміни</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;textarea/&gt;</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,6 +858,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -945,7 +1081,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -959,6 +1095,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -968,12 +1110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1322,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D9:D10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,10 +1472,10 @@
     <col min="5" max="5" width="64.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.5703125" customWidth="1"/>
     <col min="7" max="7" width="47.42578125" customWidth="1"/>
-    <col min="8" max="8" width="69.42578125" customWidth="1"/>
+    <col min="8" max="8" width="73.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1391,10 +1528,10 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="12" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1411,10 +1548,10 @@
       <c r="E5" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="14" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1425,10 +1562,10 @@
       <c r="B6" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="16" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1439,6 +1576,21 @@
       <c r="B7" s="6" t="s">
         <v>130</v>
       </c>
+      <c r="G7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -1586,11 +1738,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/React.xlsx
+++ b/React.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prj\React\social_page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21B647C-E6B4-469E-B5A6-7B9F1528CE18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B1C11C-3E8A-4BA8-AE98-DF89AD38756C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="139">
   <si>
     <t>spa (single page aplication)</t>
   </si>
@@ -826,6 +826,54 @@
         <scheme val="minor"/>
       </rPr>
       <t>&lt;textarea/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>інкапсуляція</t>
+  </si>
+  <si>
+    <t>приховування деталей</t>
+  </si>
+  <si>
+    <r>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>metod</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">метод </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>metod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> для внутрішнього користування (приватний)</t>
     </r>
   </si>
 </sst>
@@ -1101,6 +1149,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1110,7 +1159,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1579,7 +1627,7 @@
       <c r="G7" t="s">
         <v>133</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="17" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1590,7 +1638,20 @@
       <c r="B8" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -1738,11 +1799,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/React.xlsx
+++ b/React.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prj\React\social_page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B1C11C-3E8A-4BA8-AE98-DF89AD38756C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F23D7C-94FB-4268-A6E3-985898CF6652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="154">
   <si>
     <t>spa (single page aplication)</t>
   </si>
@@ -42,12 +42,6 @@
     <t>функція яка повертає розмітку 'jsx'</t>
   </si>
   <si>
-    <t>ctrl+K+C</t>
-  </si>
-  <si>
-    <t>коментування в React</t>
-  </si>
-  <si>
     <t>npm start</t>
   </si>
   <si>
@@ -361,9 +355,6 @@
   </si>
   <si>
     <t>props</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аргумент компоненти</t>
   </si>
   <si>
     <t>npm i react-router-dom -save</t>
@@ -875,6 +866,178 @@
       </rPr>
       <t xml:space="preserve"> для внутрішнього користування (приватний)</t>
     </r>
+  </si>
+  <si>
+    <t>dispatch(action)</t>
+  </si>
+  <si>
+    <t>метод dispatch заміняє всі медоти в Store</t>
+  </si>
+  <si>
+    <t>тип подається капсом в текстовому форматі</t>
+  </si>
+  <si>
+    <r>
+      <t>action.type === '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UPDATE-NEW-MESSAGE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> пропс це обєкт для передачі даних в компоненту(аргумент компоненти)</t>
+  </si>
+  <si>
+    <t>Redux</t>
+  </si>
+  <si>
+    <t>система для state management</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">npm create-react-app </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>test</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">в любій консолі створює новий скелет проекту з назвою </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>test</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;textarea placeholder='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'&gt; &lt;/textarea&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>текст підказка який світиться в &lt;textarea&gt;</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>updateNewMessageText</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = (event) =&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      let </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = event.target.value</t>
+    </r>
+  </si>
+  <si>
+    <t>Reducer</t>
+  </si>
+  <si>
+    <t>це чиста функція яка приймає State + action і повертає новий State (або старий)</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>це обєкт в якого як мінімум є Type</t>
   </si>
 </sst>
 </file>
@@ -927,7 +1090,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -946,6 +1109,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -1129,7 +1298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1159,6 +1328,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1505,25 +1681,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H13"/>
+  <dimension ref="A2:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
     <col min="3" max="3" width="3.5703125" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="64.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.5703125" customWidth="1"/>
-    <col min="7" max="7" width="47.42578125" customWidth="1"/>
+    <col min="7" max="7" width="52.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="73.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1531,19 +1707,19 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1551,111 +1727,173 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G6" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>134</v>
+      <c r="G7" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="6" t="s">
+    </row>
+    <row r="12" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="17" t="s">
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>22</v>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1681,63 +1919,63 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
@@ -1766,7 +2004,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1800,293 +2038,293 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
+      <c r="M2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="P2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Q2" t="s">
         <v>27</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>29</v>
-      </c>
-      <c r="S2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s">
+      <c r="M3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="N3" t="s">
         <v>34</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>35</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>36</v>
       </c>
-      <c r="P3" t="s">
+      <c r="S3" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="T3" t="s">
         <v>38</v>
-      </c>
-      <c r="S3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" t="s">
+      <c r="M4" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="N4" t="s">
         <v>43</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N4" t="s">
+      <c r="Q4" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="S4" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="T4" t="s">
         <v>47</v>
-      </c>
-      <c r="S4" t="s">
-        <v>48</v>
-      </c>
-      <c r="T4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B5" t="s">
+      <c r="M5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="N5" t="s">
         <v>52</v>
       </c>
-      <c r="M5" t="s">
+      <c r="P5" t="s">
         <v>53</v>
       </c>
-      <c r="N5" t="s">
+      <c r="Q5" t="s">
         <v>54</v>
-      </c>
-      <c r="P5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B6" t="s">
+      <c r="P6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="Q6" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="P6" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B7" t="s">
+      <c r="P7" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="Q7" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="P7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B8" t="s">
+      <c r="P8" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="Q8" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="P8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B9" t="s">
+      <c r="P9" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="Q9" t="s">
         <v>74</v>
-      </c>
-      <c r="P9" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B10" t="s">
+      <c r="P10" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="Q10" t="s">
         <v>79</v>
-      </c>
-      <c r="P10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B11" t="s">
+      <c r="P11" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="Q11" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="P11" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B12" t="s">
+      <c r="P12" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="Q12" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="P12" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B13" t="s">
+      <c r="P13" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="Q13" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="P13" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="P14" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="Q14" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="P14" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="P16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="16:17" ht="30" x14ac:dyDescent="0.25">
       <c r="P17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/React.xlsx
+++ b/React.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prj\React\social_page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F23D7C-94FB-4268-A6E3-985898CF6652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF77D6CF-3672-4C3C-B7D8-978C06C6180A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11475" yWindow="1605" windowWidth="13560" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="react" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="160">
   <si>
     <t>spa (single page aplication)</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t xml:space="preserve">компонента </t>
-  </si>
-  <si>
-    <t>функція яка повертає розмітку 'jsx'</t>
   </si>
   <si>
     <t>npm start</t>
@@ -1038,6 +1035,41 @@
   </si>
   <si>
     <t>це обєкт в якого як мінімум є Type</t>
+  </si>
+  <si>
+    <t>npm install redux --save</t>
+  </si>
+  <si>
+    <t>встановлення Redux і запис в package.json</t>
+  </si>
+  <si>
+    <t>функція яка приймає Props i повертає розмітку 'jsx'</t>
+  </si>
+  <si>
+    <t>npm install react-redux --save</t>
+  </si>
+  <si>
+    <t>встановлення react-redux і запис в package.json</t>
+  </si>
+  <si>
+    <t>let a ={}
+let b={…a}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">не глибока копія масиву </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>а</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1319,6 +1351,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1328,13 +1367,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1362,8 +1394,8 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>336783</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>451083</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -1683,8 +1715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,193 +1739,205 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" t="s">
         <v>143</v>
       </c>
-      <c r="E2" t="s">
-        <v>144</v>
-      </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
       <c r="G3" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
       <c r="G4" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
         <v>114</v>
       </c>
-      <c r="B5" t="s">
-        <v>115</v>
-      </c>
       <c r="D5" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" t="s">
         <v>109</v>
       </c>
-      <c r="E5" t="s">
-        <v>110</v>
-      </c>
       <c r="G5" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>117</v>
+      <c r="D6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" t="s">
+        <v>154</v>
       </c>
       <c r="G6" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>147</v>
+      <c r="D7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>125</v>
+      <c r="G8" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="H9" s="25"/>
+      <c r="G9" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>153</v>
-      </c>
       <c r="G11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="17" t="s">
         <v>130</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>151</v>
-      </c>
       <c r="G12" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="17" t="s">
         <v>134</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G13" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
+        <v>144</v>
+      </c>
+      <c r="H15" t="s">
         <v>145</v>
-      </c>
-      <c r="H15" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1919,63 +1963,63 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
@@ -2004,7 +2048,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2017,14 +2061,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E17EF31-675A-402F-8745-C5C7B8EAE6C4}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2.5703125" customWidth="1"/>
     <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
@@ -2037,294 +2083,300 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
+      <c r="A1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>25</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>27</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>28</v>
-      </c>
-      <c r="T2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="M3" t="s">
         <v>32</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>33</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>34</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>36</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>37</v>
-      </c>
-      <c r="T3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="M4" t="s">
         <v>41</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>42</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>45</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>46</v>
-      </c>
-      <c r="T4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
         <v>48</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="M5" t="s">
         <v>50</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>51</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>52</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>53</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
         <v>55</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="P6" t="s">
         <v>57</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
         <v>60</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="P7" t="s">
         <v>62</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
         <v>65</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="P8" t="s">
         <v>67</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
         <v>70</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="P9" t="s">
         <v>72</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>73</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
         <v>75</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="P10" t="s">
         <v>77</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>78</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
         <v>80</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="P11" t="s">
         <v>82</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
         <v>85</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="P12" t="s">
         <v>87</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
         <v>90</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="P13" t="s">
         <v>92</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="P14" t="s">
         <v>97</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P15" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q15" t="s">
         <v>100</v>
       </c>
-      <c r="Q15" t="s">
+    </row>
+    <row r="16" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="P16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="P16" t="s">
+      <c r="Q16" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="16:17" ht="30" x14ac:dyDescent="0.25">
       <c r="P17" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/React.xlsx
+++ b/React.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prj\React\social_page\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vodm1001\Desktop\js\prj\social_page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF77D6CF-3672-4C3C-B7D8-978C06C6180A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF4D323-B54E-4508-A06F-A7A5CBDA08DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="1605" windowWidth="13560" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="react" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="161">
   <si>
     <t>spa (single page aplication)</t>
   </si>
@@ -1070,6 +1070,9 @@
       </rPr>
       <t>а</t>
     </r>
+  </si>
+  <si>
+    <t>TEST</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1372,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1713,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H15"/>
+  <dimension ref="A2:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,6 +1941,11 @@
       </c>
       <c r="H15" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2038,7 +2046,7 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2061,7 +2069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E17EF31-675A-402F-8745-C5C7B8EAE6C4}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
